--- a/NovDec22/MetaboAnalyst/XCMSOnline_NovDec22_CombinedSettingsETC_plus_MinFrac_0.25/VennDiagrams/Shared_Items_Sheets_Time.xlsx
+++ b/NovDec22/MetaboAnalyst/XCMSOnline_NovDec22_CombinedSettingsETC_plus_MinFrac_0.25/VennDiagrams/Shared_Items_Sheets_Time.xlsx
@@ -1,1218 +1,1238 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jamie_EXT/Projects/Metabolomics/NovDec22/MetaboAnalyst/XCMSOnline_NovDec22_CombinedSettingsETC_plus_MinFrac_0.25/VennDiagrams/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36DEC64-4BD8-DF46-9D01-C7D55F5C475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T1_and_T2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Unique_to_ T1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Unique_to_ T2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="T1_and_T2" sheetId="1" r:id="rId1"/>
+    <sheet name="Unique_to_ T1" sheetId="2" r:id="rId2"/>
+    <sheet name="Unique_to_ T2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
-    <t xml:space="preserve">M449.365T1540.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M438.146T926.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M832.307T992.353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M956.379T959.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M869.334T919.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M433.152T909.874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1076.413T957.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M353.341T1488.518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1017.38T900.968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M910.351T957.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M733.253T876.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M852.32T958.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M640.427T1423.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M849.321T917.809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M679.553T1406.451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M367.15T410.425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M624.432T1423.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1017.397T924.482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M827.318T827.274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M844.318T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M850.319T858.821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M621.422T1439.586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M511.168T833.583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1017.391T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M984.394T881.272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M744.276T1008.897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M662.261T828.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M875.33T866.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M660.517T1313.696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M590.465T1389.456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M811.341T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M809.342T975.822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M557.468T1423.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M806.333T872.624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M827.326T866.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M809.346T827.274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M850.318T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M340.355T1382.768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M512.178T893.689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M507.18T901.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1070.417T942.609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M757.24T725.919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M809.345T941.458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M621.419T1456.849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M438.219T1156.388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M705.258T877.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M438.207T1136.982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M990.367T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M507.173T926.047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M835.333T951.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M904.333T924.482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1038.388T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M969.398T948.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M848.316T959.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1023.385T959.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M875.326T913.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M472.321T1423.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1095.412T857.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M875.328T942.609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M904.347T942.609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M895.336T836.496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M806.333T841.952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M603.415T1456.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M327.177T1330.308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.148T959.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M819.302T866.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M646.455T1423.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.145T941.689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M673.587T1576.856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M789.329T927.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M919.314T784.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M779.29T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M734.266T813.875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M972.391T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M806.336T927.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M704.261T784.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M809.345T958.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M574.467T1456.399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M835.332T872.624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M395.288T1490.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M633.478T1401.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M849.314T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M623.428T1423.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M833.315T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M981.368T857.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M852.321T857.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M827.321T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M734.269T909.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M985.395T851.401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M984.382T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M883.336T936.403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M787.311T955.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M624.436T1440.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M623.429T1456.316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M921.335T902.791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M567.431T1440.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M447.159T891.807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M519.225T1025.439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M511.168T847.893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M849.325T990.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M566.199T909.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M498.187T898.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M623.428T1439.576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M955.379T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M825.34T905.493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M949.356T902.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1005.378T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M668.509T1456.373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M903.354T957.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M939.375T959.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M668.492T1305.416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M798.333T1001.921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M819.303T925.437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M846.32T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M986.389T942.609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M974.38T936.403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M513.176T893.689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M894.333T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M979.612T1358.969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M907.344T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M907.342T857.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M753.276T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M668.506T1440.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M433.151T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M991.383T954.894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M804.315T943.327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M857.33T957.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M806.333T896.321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M947.375T872.624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M648.466T1423.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M955.384T902.791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M989.369T828.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M961.369T857.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M700.272T813.875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M988.382T919.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M833.319T926.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1018.384T812.644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M822.328T902.328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M861.313T812.644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M701.265T828.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M679.436T1338.726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1023.387T857.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M984.375T812.644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M425.15T917.809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M402.157T908.195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M770.485T1321.424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M862.322T959.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M505.179T828.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M970.4T881.272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M798.336T1042.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1121.44T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M979.319T755.275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M897.335T957.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M898.349T936.403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M698.269T891.807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M692.521T1354.385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M942.381T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M947.38T990.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M594.498T1557.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M472.315T1401.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M895.359T935.639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M893.333T828.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M822.841T1023.188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M885.332T901.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1002.386T959.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M840.568T1356.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M847.317T919.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M838.564T1490.054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M621.422T1335.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1001.706T1624.867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M885.34T952.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M649.479T1423.325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M639.424T1423.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1054.431T975.822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M898.344T887.472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M963.375T943.327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1000.38T828.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M871.347T798.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M855.342T925.437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M894.338T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M566.215T813.875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M427.172T904.493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M564.206T918.312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M861.315T941.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1087.424T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M661.445T1228.528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M990.389T957.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M808.349T959.178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M681.469T1389.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M905.364T942.609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M805.331T872.624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M837.55T1439.862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M758.249T769.852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M893.342T812.644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M787.312T881.272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M481.203T929.492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M650.482T1423.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M850.319T935.639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M789.34T911.399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M822.329T941.141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M833.305T975.822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M689.269T924.637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1001.365T875.234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M836.312T942.609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M795.538T1390.404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1070.408T957.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M960.389T959.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M936.359T886.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M914.341T957.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M715.234T828.282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M855.334T832.505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1033.405T908.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M785.299T924.482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M899.333T857.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M613.48T1389.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M634.244T942.609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M871.337T832.505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M935.358T959.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M975.373T872.624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M795.538T1365.583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M937.361T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1051.398T857.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1013.365T908.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M798.337T946.991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M833.318T940.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M677.441T1317.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M471.218T918.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M515.185T908.801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1002.908T1006.792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M473.199T864.231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M565.21T891.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M436.428T1590.788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M619.438T1245.233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M576.533T1641.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M392.284T1436.378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M443.333T1262.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M441.224T1179.269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M399.308T1262.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M609.455T1145.906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M545.37T1372.761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M535.447T1540.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M535.409T1440.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M330.263T1492.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M542.478T1573.977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M576.484T1557.453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M722.259T892.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M558.46T1591.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M847.517T1163.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M449.347T1490.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M549.431T1507.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M479.188T913.185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M331.187T1104.601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M771.504T1195.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M541.474T1573.977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M504.265T1099.137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M341.283T1305.932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M383.284T1439.726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M605.427T1490.314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M415.326T1295.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M455.315T1295.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M691.433T1253.346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M812.538T1253.346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M569.292T994.771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M576.484T1473.551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M765.518T1313.696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M329.158T1625.781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M330.263T1439.913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M535.375T1490.352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M808.52T1220.972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M523.599T1382.768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M343.224T1621.712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M635.491T1472.841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.529T1601.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M533.435T1510.689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M609.518T1624.418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M617.489T1624.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M817.317T940.819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M986.591T1195.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M494.563T1509.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M772.55T1170.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M549.424T1473.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M351.179T1358.969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M575.481T1540.694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M575.479T1473.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M585.283T918.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M841.471T1389.363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M332.328T1440.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.212T1319.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M475.412T1607.605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M537.533T1295.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M820.327T1006.792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M549.428T1523.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M577.49T1591.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M295.151T1624.873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M513.307T1059.952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M471.796T1446.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.509T1624.418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M516.434T1624.418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M374.303T1319.161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M516.411T1568.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M556.445T1212.039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.464T1456.367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M330.262T1456.934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M465.265T1237.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M691.436T1356.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M291.195T1053.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M534.444T1557.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M669.562T1624.559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M285.134T1052.907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M477.398T1574.327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M495.298T1036.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M329.157T1608.526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M677.438T1339.916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M351.108T857.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M985.571T1146.934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M477.343T1423.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M477.407T1590.788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M640.557T1608.472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M951.603T1424.253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M549.426T1489.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M487.775T1256.694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M867.584T1358.969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M425.215T1355.365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M618.492T1624.789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M351.253T1019.694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M605.427T1212.039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M471.336T1557.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M325.162T1642.868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M494.565T1319.161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M339.172T1490.329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M522.261T1109.944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M449.369T1557.545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M617.506T1594.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M764.517T1325.086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M430.319T1557.453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M523.36T1271.932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M652.416T1356.524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M578.503T1590.788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M899.349T990.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M513.25T1338.968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M313.161T1621.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M919.292T824.161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M465.26T1373.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M737.493T1439.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M669.531T1507.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.459T1473.698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M882.48T1339.403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1085.421T973.898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M567.43T1421.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M564.208T942.149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M425.216T1401.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M628.514T1473.756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M481.362T1591.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M669.539T1543.447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M828.538T1289.688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M886.353T1006.792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M467.383T1523.593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1123.351T817.469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M821.505T1179.269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M471.313T1295.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M510.367T1523.593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M533.436T1590.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1102.351T817.469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M682.262T843.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M629.463T1474.173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.198T1506.423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M534.402T1422.678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M813.332T1056.081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.211T1338.363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M979.313T847.893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M575.479T1456.772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M722.581T1518.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M545.456T1607.833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M628.528T1608.773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M492.408T1557.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M722.58T1595.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M879.468T1338.726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1114.854T834.347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M477.403T1542.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M561.396T1195.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M660.517T1423.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M764.518T1295.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M630.465T1474.173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M889.305T842.452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M330.261T1473.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M494.565T1422.678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M787.545T1575.098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M628.529T1624.373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M589.501T1621.712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M659.418T1406.262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M297.239T1626.197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M807.348T918.929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M605.416T1473.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M652.503T1490.314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M386.164T943.456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M393.189T1440.567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M423.321T1473.286</t>
+    <t>M449.365T1540.699</t>
+  </si>
+  <si>
+    <t>M438.146T926.75</t>
+  </si>
+  <si>
+    <t>M832.307T992.353</t>
+  </si>
+  <si>
+    <t>M956.379T959.199</t>
+  </si>
+  <si>
+    <t>M869.334T919.017</t>
+  </si>
+  <si>
+    <t>M433.152T909.874</t>
+  </si>
+  <si>
+    <t>M1076.413T957.42</t>
+  </si>
+  <si>
+    <t>M353.341T1488.518</t>
+  </si>
+  <si>
+    <t>M1017.38T900.968</t>
+  </si>
+  <si>
+    <t>M910.351T957.42</t>
+  </si>
+  <si>
+    <t>M733.253T876.34</t>
+  </si>
+  <si>
+    <t>M852.32T958.31</t>
+  </si>
+  <si>
+    <t>M640.427T1423.35</t>
+  </si>
+  <si>
+    <t>M849.321T917.809</t>
+  </si>
+  <si>
+    <t>M679.553T1406.451</t>
+  </si>
+  <si>
+    <t>M367.15T410.425</t>
+  </si>
+  <si>
+    <t>M624.432T1423.013</t>
+  </si>
+  <si>
+    <t>M1017.397T924.482</t>
+  </si>
+  <si>
+    <t>M827.318T827.274</t>
+  </si>
+  <si>
+    <t>M844.318T843.183</t>
+  </si>
+  <si>
+    <t>M850.319T858.821</t>
+  </si>
+  <si>
+    <t>M621.422T1439.586</t>
+  </si>
+  <si>
+    <t>M511.168T833.583</t>
+  </si>
+  <si>
+    <t>M1017.391T843.183</t>
+  </si>
+  <si>
+    <t>M984.394T881.272</t>
+  </si>
+  <si>
+    <t>M744.276T1008.897</t>
+  </si>
+  <si>
+    <t>M662.261T828.514</t>
+  </si>
+  <si>
+    <t>M875.33T866.333</t>
+  </si>
+  <si>
+    <t>M660.517T1313.696</t>
+  </si>
+  <si>
+    <t>M590.465T1389.456</t>
+  </si>
+  <si>
+    <t>M811.341T843.183</t>
+  </si>
+  <si>
+    <t>M809.342T975.822</t>
+  </si>
+  <si>
+    <t>M557.468T1423.166</t>
+  </si>
+  <si>
+    <t>M806.333T872.624</t>
+  </si>
+  <si>
+    <t>M827.326T866.333</t>
+  </si>
+  <si>
+    <t>M809.346T827.274</t>
+  </si>
+  <si>
+    <t>M850.318T843.183</t>
+  </si>
+  <si>
+    <t>M340.355T1382.768</t>
+  </si>
+  <si>
+    <t>M512.178T893.689</t>
+  </si>
+  <si>
+    <t>M507.18T901.88</t>
+  </si>
+  <si>
+    <t>M1070.417T942.609</t>
+  </si>
+  <si>
+    <t>M757.24T725.919</t>
+  </si>
+  <si>
+    <t>M809.345T941.458</t>
+  </si>
+  <si>
+    <t>M621.419T1456.849</t>
+  </si>
+  <si>
+    <t>M438.219T1156.388</t>
+  </si>
+  <si>
+    <t>M705.258T877.183</t>
+  </si>
+  <si>
+    <t>M438.207T1136.982</t>
+  </si>
+  <si>
+    <t>M990.367T843.183</t>
+  </si>
+  <si>
+    <t>M507.173T926.047</t>
+  </si>
+  <si>
+    <t>M835.333T951.54</t>
+  </si>
+  <si>
+    <t>M904.333T924.482</t>
+  </si>
+  <si>
+    <t>M1038.388T940.951</t>
+  </si>
+  <si>
+    <t>M969.398T948.9</t>
+  </si>
+  <si>
+    <t>M848.316T959.199</t>
+  </si>
+  <si>
+    <t>M1023.385T959.199</t>
+  </si>
+  <si>
+    <t>M875.326T913.799</t>
+  </si>
+  <si>
+    <t>M472.321T1423.013</t>
+  </si>
+  <si>
+    <t>M1095.412T857.905</t>
+  </si>
+  <si>
+    <t>M875.328T942.609</t>
+  </si>
+  <si>
+    <t>M904.347T942.609</t>
+  </si>
+  <si>
+    <t>M895.336T836.496</t>
+  </si>
+  <si>
+    <t>M806.333T841.952</t>
+  </si>
+  <si>
+    <t>M603.415T1456.538</t>
+  </si>
+  <si>
+    <t>M327.177T1330.308</t>
+  </si>
+  <si>
+    <t>M423.148T959.199</t>
+  </si>
+  <si>
+    <t>M819.302T866.333</t>
+  </si>
+  <si>
+    <t>M646.455T1423.013</t>
+  </si>
+  <si>
+    <t>M423.145T941.689</t>
+  </si>
+  <si>
+    <t>M673.587T1576.856</t>
+  </si>
+  <si>
+    <t>M789.329T927.31</t>
+  </si>
+  <si>
+    <t>M919.314T784.45</t>
+  </si>
+  <si>
+    <t>M779.29T843.183</t>
+  </si>
+  <si>
+    <t>M734.266T813.875</t>
+  </si>
+  <si>
+    <t>M972.391T940.951</t>
+  </si>
+  <si>
+    <t>M806.336T927.31</t>
+  </si>
+  <si>
+    <t>M704.261T784.45</t>
+  </si>
+  <si>
+    <t>M809.345T958.024</t>
+  </si>
+  <si>
+    <t>M574.467T1456.399</t>
+  </si>
+  <si>
+    <t>M835.332T872.624</t>
+  </si>
+  <si>
+    <t>M395.288T1490.071</t>
+  </si>
+  <si>
+    <t>M633.478T1401.37</t>
+  </si>
+  <si>
+    <t>M849.314T843.183</t>
+  </si>
+  <si>
+    <t>M623.428T1423.013</t>
+  </si>
+  <si>
+    <t>M833.315T843.183</t>
+  </si>
+  <si>
+    <t>M981.368T857.905</t>
+  </si>
+  <si>
+    <t>M852.321T857.905</t>
+  </si>
+  <si>
+    <t>M827.321T940.951</t>
+  </si>
+  <si>
+    <t>M734.269T909.479</t>
+  </si>
+  <si>
+    <t>M985.395T851.401</t>
+  </si>
+  <si>
+    <t>M984.382T940.951</t>
+  </si>
+  <si>
+    <t>M883.336T936.403</t>
+  </si>
+  <si>
+    <t>M787.311T955.77</t>
+  </si>
+  <si>
+    <t>M624.436T1440.08</t>
+  </si>
+  <si>
+    <t>M623.429T1456.316</t>
+  </si>
+  <si>
+    <t>M921.335T902.791</t>
+  </si>
+  <si>
+    <t>M567.431T1440.116</t>
+  </si>
+  <si>
+    <t>M447.159T891.807</t>
+  </si>
+  <si>
+    <t>M519.225T1025.439</t>
+  </si>
+  <si>
+    <t>M511.168T847.893</t>
+  </si>
+  <si>
+    <t>M849.325T990.311</t>
+  </si>
+  <si>
+    <t>M566.199T909.479</t>
+  </si>
+  <si>
+    <t>M498.187T898.1</t>
+  </si>
+  <si>
+    <t>M623.428T1439.576</t>
+  </si>
+  <si>
+    <t>M955.379T843.183</t>
+  </si>
+  <si>
+    <t>M825.34T905.493</t>
+  </si>
+  <si>
+    <t>M949.356T902.335</t>
+  </si>
+  <si>
+    <t>M1005.378T843.183</t>
+  </si>
+  <si>
+    <t>M668.509T1456.373</t>
+  </si>
+  <si>
+    <t>M903.354T957.42</t>
+  </si>
+  <si>
+    <t>M939.375T959.199</t>
+  </si>
+  <si>
+    <t>M668.492T1305.416</t>
+  </si>
+  <si>
+    <t>M798.333T1001.921</t>
+  </si>
+  <si>
+    <t>M819.303T925.437</t>
+  </si>
+  <si>
+    <t>M846.32T843.183</t>
+  </si>
+  <si>
+    <t>M986.389T942.609</t>
+  </si>
+  <si>
+    <t>M974.38T936.403</t>
+  </si>
+  <si>
+    <t>M513.176T893.689</t>
+  </si>
+  <si>
+    <t>M894.333T843.183</t>
+  </si>
+  <si>
+    <t>M979.612T1358.969</t>
+  </si>
+  <si>
+    <t>M907.344T940.951</t>
+  </si>
+  <si>
+    <t>M907.342T857.905</t>
+  </si>
+  <si>
+    <t>M753.276T940.951</t>
+  </si>
+  <si>
+    <t>M668.506T1440.08</t>
+  </si>
+  <si>
+    <t>M433.151T843.183</t>
+  </si>
+  <si>
+    <t>M991.383T954.894</t>
+  </si>
+  <si>
+    <t>M804.315T943.327</t>
+  </si>
+  <si>
+    <t>M857.33T957.42</t>
+  </si>
+  <si>
+    <t>M806.333T896.321</t>
+  </si>
+  <si>
+    <t>M947.375T872.624</t>
+  </si>
+  <si>
+    <t>M648.466T1423.012</t>
+  </si>
+  <si>
+    <t>M955.384T902.791</t>
+  </si>
+  <si>
+    <t>M989.369T828.514</t>
+  </si>
+  <si>
+    <t>M961.369T857.905</t>
+  </si>
+  <si>
+    <t>M700.272T813.875</t>
+  </si>
+  <si>
+    <t>M988.382T919.58</t>
+  </si>
+  <si>
+    <t>M833.319T926.75</t>
+  </si>
+  <si>
+    <t>M1018.384T812.644</t>
+  </si>
+  <si>
+    <t>M822.328T902.328</t>
+  </si>
+  <si>
+    <t>M861.313T812.644</t>
+  </si>
+  <si>
+    <t>M701.265T828.514</t>
+  </si>
+  <si>
+    <t>M679.436T1338.726</t>
+  </si>
+  <si>
+    <t>M1023.387T857.905</t>
+  </si>
+  <si>
+    <t>M984.375T812.644</t>
+  </si>
+  <si>
+    <t>M425.15T917.809</t>
+  </si>
+  <si>
+    <t>M402.157T908.195</t>
+  </si>
+  <si>
+    <t>M770.485T1321.424</t>
+  </si>
+  <si>
+    <t>M862.322T959.199</t>
+  </si>
+  <si>
+    <t>M505.179T828.514</t>
+  </si>
+  <si>
+    <t>M970.4T881.272</t>
+  </si>
+  <si>
+    <t>M798.336T1042.058</t>
+  </si>
+  <si>
+    <t>M1121.44T843.183</t>
+  </si>
+  <si>
+    <t>M979.319T755.275</t>
+  </si>
+  <si>
+    <t>M897.335T957.42</t>
+  </si>
+  <si>
+    <t>M898.349T936.403</t>
+  </si>
+  <si>
+    <t>M698.269T891.807</t>
+  </si>
+  <si>
+    <t>M692.521T1354.385</t>
+  </si>
+  <si>
+    <t>M942.381T940.951</t>
+  </si>
+  <si>
+    <t>M947.38T990.311</t>
+  </si>
+  <si>
+    <t>M594.498T1557.26</t>
+  </si>
+  <si>
+    <t>M472.315T1401.37</t>
+  </si>
+  <si>
+    <t>M895.359T935.639</t>
+  </si>
+  <si>
+    <t>M893.333T828.514</t>
+  </si>
+  <si>
+    <t>M822.841T1023.188</t>
+  </si>
+  <si>
+    <t>M885.332T901.88</t>
+  </si>
+  <si>
+    <t>M1002.386T959.199</t>
+  </si>
+  <si>
+    <t>M840.568T1356.47</t>
+  </si>
+  <si>
+    <t>M847.317T919.58</t>
+  </si>
+  <si>
+    <t>M838.564T1490.054</t>
+  </si>
+  <si>
+    <t>M621.422T1335.803</t>
+  </si>
+  <si>
+    <t>M1001.706T1624.867</t>
+  </si>
+  <si>
+    <t>M885.34T952.01</t>
+  </si>
+  <si>
+    <t>M649.479T1423.325</t>
+  </si>
+  <si>
+    <t>M639.424T1423.012</t>
+  </si>
+  <si>
+    <t>M1054.431T975.822</t>
+  </si>
+  <si>
+    <t>M898.344T887.472</t>
+  </si>
+  <si>
+    <t>M963.375T943.327</t>
+  </si>
+  <si>
+    <t>M1000.38T828.514</t>
+  </si>
+  <si>
+    <t>M871.347T798.136</t>
+  </si>
+  <si>
+    <t>M855.342T925.437</t>
+  </si>
+  <si>
+    <t>M894.338T940.951</t>
+  </si>
+  <si>
+    <t>M566.215T813.875</t>
+  </si>
+  <si>
+    <t>M427.172T904.493</t>
+  </si>
+  <si>
+    <t>M564.206T918.312</t>
+  </si>
+  <si>
+    <t>M861.315T941.124</t>
+  </si>
+  <si>
+    <t>M1087.424T940.951</t>
+  </si>
+  <si>
+    <t>M661.445T1228.528</t>
+  </si>
+  <si>
+    <t>M990.389T957.42</t>
+  </si>
+  <si>
+    <t>M808.349T959.178</t>
+  </si>
+  <si>
+    <t>M681.469T1389.183</t>
+  </si>
+  <si>
+    <t>M905.364T942.609</t>
+  </si>
+  <si>
+    <t>M805.331T872.624</t>
+  </si>
+  <si>
+    <t>M837.55T1439.862</t>
+  </si>
+  <si>
+    <t>M758.249T769.852</t>
+  </si>
+  <si>
+    <t>M893.342T812.644</t>
+  </si>
+  <si>
+    <t>M787.312T881.272</t>
+  </si>
+  <si>
+    <t>M481.203T929.492</t>
+  </si>
+  <si>
+    <t>M650.482T1423.013</t>
+  </si>
+  <si>
+    <t>M850.319T935.639</t>
+  </si>
+  <si>
+    <t>M789.34T911.399</t>
+  </si>
+  <si>
+    <t>M822.329T941.141</t>
+  </si>
+  <si>
+    <t>M833.305T975.822</t>
+  </si>
+  <si>
+    <t>M689.269T924.637</t>
+  </si>
+  <si>
+    <t>M1001.365T875.234</t>
+  </si>
+  <si>
+    <t>M836.312T942.609</t>
+  </si>
+  <si>
+    <t>M795.538T1390.404</t>
+  </si>
+  <si>
+    <t>M1070.408T957.42</t>
+  </si>
+  <si>
+    <t>M960.389T959.199</t>
+  </si>
+  <si>
+    <t>M936.359T886.012</t>
+  </si>
+  <si>
+    <t>M914.341T957.42</t>
+  </si>
+  <si>
+    <t>M715.234T828.282</t>
+  </si>
+  <si>
+    <t>M855.334T832.505</t>
+  </si>
+  <si>
+    <t>M1033.405T908.018</t>
+  </si>
+  <si>
+    <t>M785.299T924.482</t>
+  </si>
+  <si>
+    <t>M899.333T857.905</t>
+  </si>
+  <si>
+    <t>M613.48T1389.147</t>
+  </si>
+  <si>
+    <t>M634.244T942.609</t>
+  </si>
+  <si>
+    <t>M871.337T832.505</t>
+  </si>
+  <si>
+    <t>M935.358T959.199</t>
+  </si>
+  <si>
+    <t>M975.373T872.624</t>
+  </si>
+  <si>
+    <t>M795.538T1365.583</t>
+  </si>
+  <si>
+    <t>M937.361T940.951</t>
+  </si>
+  <si>
+    <t>M1051.398T857.905</t>
+  </si>
+  <si>
+    <t>M1013.365T908.018</t>
+  </si>
+  <si>
+    <t>M798.337T946.991</t>
+  </si>
+  <si>
+    <t>M833.318T940.951</t>
+  </si>
+  <si>
+    <t>M677.441T1317.16</t>
+  </si>
+  <si>
+    <t>M471.218T918.479</t>
+  </si>
+  <si>
+    <t>M515.185T908.801</t>
+  </si>
+  <si>
+    <t>M1002.908T1006.792</t>
+  </si>
+  <si>
+    <t>M473.199T864.231</t>
+  </si>
+  <si>
+    <t>M565.21T891.79</t>
+  </si>
+  <si>
+    <t>M436.428T1590.788</t>
+  </si>
+  <si>
+    <t>M619.438T1245.233</t>
+  </si>
+  <si>
+    <t>M576.533T1641.124</t>
+  </si>
+  <si>
+    <t>M392.284T1436.378</t>
+  </si>
+  <si>
+    <t>M443.333T1262.042</t>
+  </si>
+  <si>
+    <t>M441.224T1179.269</t>
+  </si>
+  <si>
+    <t>M399.308T1262.042</t>
+  </si>
+  <si>
+    <t>M609.455T1145.906</t>
+  </si>
+  <si>
+    <t>M545.37T1372.761</t>
+  </si>
+  <si>
+    <t>M535.447T1540.43</t>
+  </si>
+  <si>
+    <t>M535.409T1440.116</t>
+  </si>
+  <si>
+    <t>M330.263T1492.022</t>
+  </si>
+  <si>
+    <t>M542.478T1573.977</t>
+  </si>
+  <si>
+    <t>M576.484T1557.453</t>
+  </si>
+  <si>
+    <t>M722.259T892.9</t>
+  </si>
+  <si>
+    <t>M558.46T1591.049</t>
+  </si>
+  <si>
+    <t>M847.517T1163.004</t>
+  </si>
+  <si>
+    <t>M449.347T1490.033</t>
+  </si>
+  <si>
+    <t>M549.431T1507.08</t>
+  </si>
+  <si>
+    <t>M479.188T913.185</t>
+  </si>
+  <si>
+    <t>M331.187T1104.601</t>
+  </si>
+  <si>
+    <t>M771.504T1195.638</t>
+  </si>
+  <si>
+    <t>M541.474T1573.977</t>
+  </si>
+  <si>
+    <t>M504.265T1099.137</t>
+  </si>
+  <si>
+    <t>M341.283T1305.932</t>
+  </si>
+  <si>
+    <t>M383.284T1439.726</t>
+  </si>
+  <si>
+    <t>M605.427T1490.314</t>
+  </si>
+  <si>
+    <t>M415.326T1295.888</t>
+  </si>
+  <si>
+    <t>M455.315T1295.888</t>
+  </si>
+  <si>
+    <t>M691.433T1253.346</t>
+  </si>
+  <si>
+    <t>M812.538T1253.346</t>
+  </si>
+  <si>
+    <t>M569.292T994.771</t>
+  </si>
+  <si>
+    <t>M576.484T1473.551</t>
+  </si>
+  <si>
+    <t>M765.518T1313.696</t>
+  </si>
+  <si>
+    <t>M329.158T1625.781</t>
+  </si>
+  <si>
+    <t>M330.263T1439.913</t>
+  </si>
+  <si>
+    <t>M535.375T1490.352</t>
+  </si>
+  <si>
+    <t>M808.52T1220.972</t>
+  </si>
+  <si>
+    <t>M523.599T1382.768</t>
+  </si>
+  <si>
+    <t>M343.224T1621.712</t>
+  </si>
+  <si>
+    <t>M635.491T1472.841</t>
+  </si>
+  <si>
+    <t>M629.529T1601.79</t>
+  </si>
+  <si>
+    <t>M533.435T1510.689</t>
+  </si>
+  <si>
+    <t>M609.518T1624.418</t>
+  </si>
+  <si>
+    <t>M617.489T1624.961</t>
+  </si>
+  <si>
+    <t>M817.317T940.819</t>
+  </si>
+  <si>
+    <t>M986.591T1195.638</t>
+  </si>
+  <si>
+    <t>M494.563T1509.9</t>
+  </si>
+  <si>
+    <t>M772.55T1170.538</t>
+  </si>
+  <si>
+    <t>M549.424T1473.203</t>
+  </si>
+  <si>
+    <t>M351.179T1358.969</t>
+  </si>
+  <si>
+    <t>M575.481T1540.694</t>
+  </si>
+  <si>
+    <t>M575.479T1473.048</t>
+  </si>
+  <si>
+    <t>M585.283T918.479</t>
+  </si>
+  <si>
+    <t>M841.471T1389.363</t>
+  </si>
+  <si>
+    <t>M332.328T1440.13</t>
+  </si>
+  <si>
+    <t>M423.212T1319.031</t>
+  </si>
+  <si>
+    <t>M475.412T1607.605</t>
+  </si>
+  <si>
+    <t>M537.533T1295.888</t>
+  </si>
+  <si>
+    <t>M820.327T1006.792</t>
+  </si>
+  <si>
+    <t>M549.428T1523.962</t>
+  </si>
+  <si>
+    <t>M577.49T1591.335</t>
+  </si>
+  <si>
+    <t>M295.151T1624.873</t>
+  </si>
+  <si>
+    <t>M513.307T1059.952</t>
+  </si>
+  <si>
+    <t>M471.796T1446.028</t>
+  </si>
+  <si>
+    <t>M629.509T1624.418</t>
+  </si>
+  <si>
+    <t>M516.434T1624.418</t>
+  </si>
+  <si>
+    <t>M374.303T1319.161</t>
+  </si>
+  <si>
+    <t>M516.411T1568.021</t>
+  </si>
+  <si>
+    <t>M556.445T1212.039</t>
+  </si>
+  <si>
+    <t>M629.464T1456.367</t>
+  </si>
+  <si>
+    <t>M330.262T1456.934</t>
+  </si>
+  <si>
+    <t>M465.265T1237.073</t>
+  </si>
+  <si>
+    <t>M691.436T1356.203</t>
+  </si>
+  <si>
+    <t>M291.195T1053.001</t>
+  </si>
+  <si>
+    <t>M534.444T1557.26</t>
+  </si>
+  <si>
+    <t>M669.562T1624.559</t>
+  </si>
+  <si>
+    <t>M285.134T1052.907</t>
+  </si>
+  <si>
+    <t>M477.398T1574.327</t>
+  </si>
+  <si>
+    <t>M495.298T1036.333</t>
+  </si>
+  <si>
+    <t>M329.157T1608.526</t>
+  </si>
+  <si>
+    <t>M677.438T1339.916</t>
+  </si>
+  <si>
+    <t>M351.108T857.905</t>
+  </si>
+  <si>
+    <t>M985.571T1146.934</t>
+  </si>
+  <si>
+    <t>M477.343T1423.013</t>
+  </si>
+  <si>
+    <t>M477.407T1590.788</t>
+  </si>
+  <si>
+    <t>M640.557T1608.472</t>
+  </si>
+  <si>
+    <t>M951.603T1424.253</t>
+  </si>
+  <si>
+    <t>M549.426T1489.95</t>
+  </si>
+  <si>
+    <t>M487.775T1256.694</t>
+  </si>
+  <si>
+    <t>M867.584T1358.969</t>
+  </si>
+  <si>
+    <t>M425.215T1355.365</t>
+  </si>
+  <si>
+    <t>M618.492T1624.789</t>
+  </si>
+  <si>
+    <t>M351.253T1019.694</t>
+  </si>
+  <si>
+    <t>M605.427T1212.039</t>
+  </si>
+  <si>
+    <t>M471.336T1557.26</t>
+  </si>
+  <si>
+    <t>M325.162T1642.868</t>
+  </si>
+  <si>
+    <t>M494.565T1319.161</t>
+  </si>
+  <si>
+    <t>M339.172T1490.329</t>
+  </si>
+  <si>
+    <t>M522.261T1109.944</t>
+  </si>
+  <si>
+    <t>M449.369T1557.545</t>
+  </si>
+  <si>
+    <t>M617.506T1594.034</t>
+  </si>
+  <si>
+    <t>M764.517T1325.086</t>
+  </si>
+  <si>
+    <t>M430.319T1557.453</t>
+  </si>
+  <si>
+    <t>M523.36T1271.932</t>
+  </si>
+  <si>
+    <t>M652.416T1356.524</t>
+  </si>
+  <si>
+    <t>M578.503T1590.788</t>
+  </si>
+  <si>
+    <t>M899.349T990.311</t>
+  </si>
+  <si>
+    <t>M513.25T1338.968</t>
+  </si>
+  <si>
+    <t>M313.161T1621.4</t>
+  </si>
+  <si>
+    <t>M919.292T824.161</t>
+  </si>
+  <si>
+    <t>M465.26T1373.143</t>
+  </si>
+  <si>
+    <t>M737.493T1439.78</t>
+  </si>
+  <si>
+    <t>M669.531T1507.08</t>
+  </si>
+  <si>
+    <t>M629.459T1473.698</t>
+  </si>
+  <si>
+    <t>M882.48T1339.403</t>
+  </si>
+  <si>
+    <t>M1085.421T973.898</t>
+  </si>
+  <si>
+    <t>M567.43T1421.35</t>
+  </si>
+  <si>
+    <t>M564.208T942.149</t>
+  </si>
+  <si>
+    <t>M425.216T1401.37</t>
+  </si>
+  <si>
+    <t>M628.514T1473.756</t>
+  </si>
+  <si>
+    <t>M481.362T1591.564</t>
+  </si>
+  <si>
+    <t>M669.539T1543.447</t>
+  </si>
+  <si>
+    <t>M828.538T1289.688</t>
+  </si>
+  <si>
+    <t>M886.353T1006.792</t>
+  </si>
+  <si>
+    <t>M467.383T1523.593</t>
+  </si>
+  <si>
+    <t>M1123.351T817.469</t>
+  </si>
+  <si>
+    <t>M821.505T1179.269</t>
+  </si>
+  <si>
+    <t>M471.313T1295.888</t>
+  </si>
+  <si>
+    <t>M510.367T1523.593</t>
+  </si>
+  <si>
+    <t>M533.436T1590.96</t>
+  </si>
+  <si>
+    <t>M1102.351T817.469</t>
+  </si>
+  <si>
+    <t>M682.262T843.183</t>
+  </si>
+  <si>
+    <t>M629.463T1474.173</t>
+  </si>
+  <si>
+    <t>M423.198T1506.423</t>
+  </si>
+  <si>
+    <t>M534.402T1422.678</t>
+  </si>
+  <si>
+    <t>M813.332T1056.081</t>
+  </si>
+  <si>
+    <t>M423.211T1338.363</t>
+  </si>
+  <si>
+    <t>M979.313T847.893</t>
+  </si>
+  <si>
+    <t>M575.479T1456.772</t>
+  </si>
+  <si>
+    <t>M722.581T1518.016</t>
+  </si>
+  <si>
+    <t>M545.456T1607.833</t>
+  </si>
+  <si>
+    <t>M628.528T1608.773</t>
+  </si>
+  <si>
+    <t>M492.408T1557.26</t>
+  </si>
+  <si>
+    <t>M722.58T1595.75</t>
+  </si>
+  <si>
+    <t>M879.468T1338.726</t>
+  </si>
+  <si>
+    <t>M1114.854T834.347</t>
+  </si>
+  <si>
+    <t>M477.403T1542.988</t>
+  </si>
+  <si>
+    <t>M561.396T1195.638</t>
+  </si>
+  <si>
+    <t>M660.517T1423.005</t>
+  </si>
+  <si>
+    <t>M764.518T1295.888</t>
+  </si>
+  <si>
+    <t>M630.465T1474.173</t>
+  </si>
+  <si>
+    <t>M889.305T842.452</t>
+  </si>
+  <si>
+    <t>M330.261T1473.013</t>
+  </si>
+  <si>
+    <t>M494.565T1422.678</t>
+  </si>
+  <si>
+    <t>M787.545T1575.098</t>
+  </si>
+  <si>
+    <t>M628.529T1624.373</t>
+  </si>
+  <si>
+    <t>M589.501T1621.712</t>
+  </si>
+  <si>
+    <t>M659.418T1406.262</t>
+  </si>
+  <si>
+    <t>M297.239T1626.197</t>
+  </si>
+  <si>
+    <t>M807.348T918.929</t>
+  </si>
+  <si>
+    <t>M605.416T1473.993</t>
+  </si>
+  <si>
+    <t>M652.503T1490.314</t>
+  </si>
+  <si>
+    <t>M386.164T943.456</t>
+  </si>
+  <si>
+    <t>M393.189T1440.567</t>
+  </si>
+  <si>
+    <t>M423.321T1473.286</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1248,6 +1268,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1529,2028 +1558,2043 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A226"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A165"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>